--- a/tumorboards/__SQLite_database/template.xlsx
+++ b/tumorboards/__SQLite_database/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\tumorboards\__SQLite_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\RAO_Projekte\App\tumorboards\__SQLite_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315E19D7-7274-4C69-9DC1-B8142EA96F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Patientennummer</t>
   </si>
@@ -53,60 +52,6 @@
   </si>
   <si>
     <t>Vormerken für Studie</t>
-  </si>
-  <si>
-    <t>Agrippa Elisabeth Juliana</t>
-  </si>
-  <si>
-    <t>Anliker Anita Eveline</t>
-  </si>
-  <si>
-    <t>Bajrami Bashkim</t>
-  </si>
-  <si>
-    <t>Barmpas Konstantinos</t>
-  </si>
-  <si>
-    <t>Bischof Rosa Katharina</t>
-  </si>
-  <si>
-    <t>Dauti Majlinda</t>
-  </si>
-  <si>
-    <t>Franchetti Lisa</t>
-  </si>
-  <si>
-    <t>Föhner Tim Leo</t>
-  </si>
-  <si>
-    <t>Humbert-Droz Alex Alois</t>
-  </si>
-  <si>
-    <t>Hyseni Maliqi Donjeta</t>
-  </si>
-  <si>
-    <t>Iransen Beatrice Theda Maria Elizabeth</t>
-  </si>
-  <si>
-    <t>Kleinert Jasmin Jana</t>
-  </si>
-  <si>
-    <t>La Torre Melanie</t>
-  </si>
-  <si>
-    <t>Sama Krisk</t>
-  </si>
-  <si>
-    <t>Schneitter Thomas</t>
-  </si>
-  <si>
-    <t>Treffer Susanne Andrea</t>
-  </si>
-  <si>
-    <t>Wenger Adrian Rudolf</t>
-  </si>
-  <si>
-    <t>Wettstein Katja Tamara</t>
   </si>
   <si>
     <t>Teams Priorisierung</t>
@@ -115,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,11 +432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,157 +484,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10774333</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11309261</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1241893</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11356014</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10348542</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10942597</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>11119095</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10383356</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10789778</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11315313</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7611978</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11297067</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10281786</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11451186</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>11461800</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>679100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11393856</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>10977767</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
